--- a/Data replication.xlsx
+++ b/Data replication.xlsx
@@ -13,16 +13,17 @@
     <sheet name="chart5" sheetId="5" r:id="rId7"/>
     <sheet name="chart6" sheetId="6" r:id="rId8"/>
     <sheet name="chart7" sheetId="7" r:id="rId9"/>
-    <sheet name="chart 8" sheetId="8" r:id="rId10"/>
-    <sheet name="chart9" sheetId="9" r:id="rId11"/>
+    <sheet name="chart8" sheetId="8" r:id="rId10"/>
+    <sheet name="chart 9" sheetId="9" r:id="rId11"/>
     <sheet name="chart10" sheetId="10" r:id="rId12"/>
+    <sheet name="chart11" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="462" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="492" uniqueCount="176">
   <si>
     <t>Chart1</t>
   </si>
@@ -204,6 +205,48 @@
     <t>Chart3</t>
   </si>
   <si>
+    <t>The courts in [COUNTRY] guarantee everyone a fair trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Often</t>
+  </si>
+  <si>
+    <t>(60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rarely</t>
+  </si>
+  <si>
+    <t>In [COUNTRY], the courts are more concerned about procedures than they are with</t>
+  </si>
+  <si>
+    <t>(26%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Never</t>
+  </si>
+  <si>
+    <t>(15%)</t>
+  </si>
+  <si>
+    <t>The courts in [COUNTRY] decide cases according to the interests of those who hav</t>
+  </si>
+  <si>
+    <t>(9%)</t>
+  </si>
+  <si>
+    <t>(22%)</t>
+  </si>
+  <si>
+    <t>(57%)</t>
+  </si>
+  <si>
+    <t>Chart4</t>
+  </si>
+  <si>
     <t>Is effective in bringing people who commit crimes to justice?</t>
   </si>
   <si>
@@ -264,7 +307,7 @@
     <t>(56%)</t>
   </si>
   <si>
-    <t>Chart4</t>
+    <t>Chart5</t>
   </si>
   <si>
     <t>Being available to help you when you need it.</t>
@@ -306,9 +349,6 @@
     <t xml:space="preserve">  Strongly agree</t>
   </si>
   <si>
-    <t>(22%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Agree</t>
   </si>
   <si>
@@ -324,31 +364,13 @@
     <t>The police in [COUNTRY] serve the interests of your community.</t>
   </si>
   <si>
-    <t>(9%)</t>
-  </si>
-  <si>
-    <t>(26%)</t>
-  </si>
-  <si>
-    <t>Chart5</t>
+    <t>Chart6</t>
   </si>
   <si>
     <t>The police in [COUNTRY] act according to the law.</t>
   </si>
   <si>
-    <t xml:space="preserve">  Always</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Often</t>
-  </si>
-  <si>
     <t>Do not use excessive force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Rarely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Never</t>
   </si>
   <si>
     <t>Police investigators in [COUNTRY] perform serious and law-abiding investigations</t>
@@ -360,7 +382,7 @@
     <t>Treating all people with kindness and respect.</t>
   </si>
   <si>
-    <t>Chart6</t>
+    <t>Chart7</t>
   </si>
   <si>
     <t>In [COUNTRY], if members of the police request bribes from the public, they will</t>
@@ -393,7 +415,7 @@
     <t>(17%)</t>
   </si>
   <si>
-    <t>Chart7</t>
+    <t>Chart8</t>
   </si>
   <si>
     <t>A homosexual or LGBT+ (Lesbian, Gay, Bisexual, Transgender, Other) person. Imagi</t>
@@ -465,13 +487,13 @@
     <t>Workers can freely bargain for their labor rights</t>
   </si>
   <si>
-    <t>Chart9</t>
+    <t>Chart10</t>
   </si>
   <si>
     <t>discrim</t>
   </si>
   <si>
-    <t>Chart10</t>
+    <t>Chart11</t>
   </si>
   <si>
     <t>What do you think is the main reason for these experiences? Your age</t>
@@ -535,7 +557,271 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="956">
+  <fonts count="1022">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -4368,7 +4654,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="958">
+  <borders count="1024">
     <border>
       <left/>
       <right/>
@@ -7152,6 +7438,468 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
@@ -11061,7 +11809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="958">
+  <cellXfs count="1024">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -12492,7 +13240,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12500,7 +13248,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12648,19 +13396,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="400" fillId="0" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="401" fillId="0" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12668,15 +13416,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="402" fillId="0" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="403" fillId="0" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12688,11 +13436,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12740,7 +13488,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="420" fillId="0" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="421" fillId="0" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12748,7 +13496,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="422" fillId="0" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="423" fillId="0" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12756,7 +13504,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12764,7 +13512,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12828,7 +13576,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="442" fillId="0" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12836,7 +13584,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12880,19 +13628,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="455" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="456" fillId="0" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="458" fillId="0" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -12900,281 +13648,281 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="0" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="464" fillId="0" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="465" fillId="0" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="466" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="467" fillId="0" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="468" fillId="0" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="469" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="470" fillId="0" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="471" fillId="0" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="475" fillId="0" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="476" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="477" fillId="0" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="479" fillId="0" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="482" fillId="0" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="484" fillId="0" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="486" fillId="0" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="487" fillId="0" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="488" fillId="0" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="489" fillId="0" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="490" fillId="0" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="491" fillId="0" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="492" fillId="0" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="493" fillId="0" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="494" fillId="0" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="495" fillId="0" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="496" fillId="0" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="497" fillId="0" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="498" fillId="0" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="499" fillId="0" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="500" fillId="0" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="501" fillId="0" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="502" fillId="0" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="503" fillId="0" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="504" fillId="0" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="505" fillId="0" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="506" fillId="0" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="507" fillId="0" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="508" fillId="0" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="509" fillId="0" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="511" fillId="0" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="513" fillId="0" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="514" fillId="0" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="515" fillId="0" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="517" fillId="0" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="518" fillId="0" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="519" fillId="0" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="520" fillId="0" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="521" fillId="0" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="522" fillId="0" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="523" fillId="0" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="524" fillId="0" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="525" fillId="0" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="526" fillId="0" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="527" fillId="0" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="528" fillId="0" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="0" fontId="529" fillId="0" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13184,11 +13932,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="531" fillId="0" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="532" fillId="0" borderId="532" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="533" fillId="0" borderId="533" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13196,7 +13944,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="534" fillId="0" borderId="534" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="535" fillId="0" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13204,7 +13952,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="536" fillId="0" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="537" fillId="0" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13212,7 +13960,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="538" fillId="0" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="539" fillId="0" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13220,7 +13968,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="540" fillId="0" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="541" fillId="0" borderId="541" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13228,7 +13976,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="542" fillId="0" borderId="542" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="543" fillId="0" borderId="543" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13236,7 +13984,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="544" fillId="0" borderId="544" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="545" fillId="0" borderId="545" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13244,7 +13992,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="546" fillId="0" borderId="546" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="547" fillId="0" borderId="547" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13256,19 +14004,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="549" fillId="0" borderId="549" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="550" fillId="0" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="551" fillId="0" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="552" fillId="0" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="553" fillId="0" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13276,281 +14024,281 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="554" fillId="0" borderId="554" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="555" fillId="0" borderId="555" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="0" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="0" borderId="615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="0" borderId="616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="0" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="0" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="558" fillId="0" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="559" fillId="0" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="560" fillId="0" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="561" fillId="0" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="562" fillId="0" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="563" fillId="0" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="564" fillId="0" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="565" fillId="0" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="566" fillId="0" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="567" fillId="0" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="568" fillId="0" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="569" fillId="0" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="570" fillId="0" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="571" fillId="0" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="572" fillId="0" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="573" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="574" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="575" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="576" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="577" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="578" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="579" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="580" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="581" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="582" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="583" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="584" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="585" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="586" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="587" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="588" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="589" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="590" fillId="0" borderId="590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="591" fillId="0" borderId="591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="592" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="593" fillId="0" borderId="593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="594" fillId="0" borderId="594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="595" fillId="0" borderId="595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="596" fillId="0" borderId="596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="597" fillId="0" borderId="597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="598" fillId="0" borderId="598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="599" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="600" fillId="0" borderId="600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="601" fillId="0" borderId="601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="602" fillId="0" borderId="602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="603" fillId="0" borderId="603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="0" borderId="604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="605" fillId="0" borderId="605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="606" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="607" fillId="0" borderId="607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="608" fillId="0" borderId="608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="609" fillId="0" borderId="609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="610" fillId="0" borderId="610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="611" fillId="0" borderId="611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="612" fillId="0" borderId="612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="613" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="614" fillId="0" borderId="614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="615" fillId="0" borderId="615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="616" fillId="0" borderId="616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="618" fillId="0" borderId="618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="619" fillId="0" borderId="619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="620" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="621" fillId="0" borderId="621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="622" fillId="0" borderId="622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="0" fontId="623" fillId="0" borderId="623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13560,11 +14308,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="625" fillId="0" borderId="625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="626" fillId="0" borderId="626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="627" fillId="0" borderId="627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13580,7 +14328,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="630" fillId="0" borderId="630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="631" fillId="0" borderId="631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13588,7 +14336,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="632" fillId="0" borderId="632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="633" fillId="0" borderId="633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13596,23 +14344,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="634" fillId="0" borderId="634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="635" fillId="0" borderId="635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="636" fillId="0" borderId="636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="637" fillId="0" borderId="637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="638" fillId="0" borderId="638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="639" fillId="0" borderId="639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13620,281 +14368,281 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="640" fillId="0" borderId="640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="641" fillId="0" borderId="641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="0" borderId="647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="0" borderId="657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="658" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="659" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="660" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="661" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="662" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="663" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="664" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="665" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="666" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="667" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="668" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="669" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="670" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="671" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="672" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="674" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="675" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="676" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="677" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="678" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="679" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="680" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="681" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="682" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="683" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="684" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="685" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="686" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="0" borderId="687" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="688" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="0" borderId="689" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="690" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="691" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="692" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="0" borderId="693" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="694" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="0" borderId="695" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="696" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="697" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="698" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="0" borderId="699" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="0" borderId="700" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="701" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="0" borderId="702" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="703" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="704" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="0" borderId="705" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="0" borderId="706" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="707" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="0" borderId="642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="708" fillId="0" borderId="708" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="0" borderId="643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="644" fillId="0" borderId="644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="645" fillId="0" borderId="645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="646" fillId="0" borderId="646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="647" fillId="0" borderId="647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="648" fillId="0" borderId="648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="650" fillId="0" borderId="650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="651" fillId="0" borderId="651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="652" fillId="0" borderId="652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="653" fillId="0" borderId="653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="654" fillId="0" borderId="654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="655" fillId="0" borderId="655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="656" fillId="0" borderId="656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="657" fillId="0" borderId="657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="658" fillId="0" borderId="658" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="659" fillId="0" borderId="659" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="660" fillId="0" borderId="660" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="661" fillId="0" borderId="661" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="662" fillId="0" borderId="662" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="663" fillId="0" borderId="663" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="664" fillId="0" borderId="664" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="665" fillId="0" borderId="665" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="666" fillId="0" borderId="666" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="667" fillId="0" borderId="667" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="668" fillId="0" borderId="668" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="669" fillId="0" borderId="669" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="670" fillId="0" borderId="670" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="671" fillId="0" borderId="671" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="672" fillId="0" borderId="672" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="673" fillId="0" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="674" fillId="0" borderId="674" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="675" fillId="0" borderId="675" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="676" fillId="0" borderId="676" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="677" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="678" fillId="0" borderId="678" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="679" fillId="0" borderId="679" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="680" fillId="0" borderId="680" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="681" fillId="0" borderId="681" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="682" fillId="0" borderId="682" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="683" fillId="0" borderId="683" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="0" borderId="684" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="0" borderId="685" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="686" fillId="0" borderId="686" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="687" fillId="0" borderId="687" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="688" fillId="0" borderId="688" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="689" fillId="0" borderId="689" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="690" fillId="0" borderId="690" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="691" fillId="0" borderId="691" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="692" fillId="0" borderId="692" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="693" fillId="0" borderId="693" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="694" fillId="0" borderId="694" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="695" fillId="0" borderId="695" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="696" fillId="0" borderId="696" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="697" fillId="0" borderId="697" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="698" fillId="0" borderId="698" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="699" fillId="0" borderId="699" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="0" borderId="700" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="701" fillId="0" borderId="701" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="702" fillId="0" borderId="702" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="703" fillId="0" borderId="703" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="704" fillId="0" borderId="704" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="705" fillId="0" borderId="705" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="706" fillId="0" borderId="706" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="707" fillId="0" borderId="707" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="708" fillId="0" borderId="708" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="0" fontId="709" fillId="0" borderId="709" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13904,11 +14652,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="711" fillId="0" borderId="711" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="712" fillId="0" borderId="712" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="713" fillId="0" borderId="713" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13940,7 +14688,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="720" fillId="0" borderId="720" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="721" fillId="0" borderId="721" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13948,7 +14696,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="722" fillId="0" borderId="722" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="723" fillId="0" borderId="723" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13956,7 +14704,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="724" fillId="0" borderId="724" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="725" fillId="0" borderId="725" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13964,7 +14712,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="726" fillId="0" borderId="726" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="727" fillId="0" borderId="727" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14008,19 +14756,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="737" fillId="0" borderId="737" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="738" fillId="0" borderId="738" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="739" fillId="0" borderId="739" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="740" fillId="0" borderId="740" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="741" fillId="0" borderId="741" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14028,684 +14776,684 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="742" fillId="0" borderId="742" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="743" fillId="0" borderId="743" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="0" borderId="744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="0" borderId="746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="0" borderId="747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="0" borderId="748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="0" borderId="749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="0" borderId="750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="0" borderId="751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="0" borderId="752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="0" borderId="753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="0" borderId="754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="0" borderId="755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="0" borderId="756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="757" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="0" borderId="758" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="0" borderId="759" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="0" borderId="760" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="0" borderId="761" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="0" borderId="762" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="763" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="0" borderId="764" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="0" borderId="765" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="0" borderId="766" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="0" borderId="767" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="0" borderId="768" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="0" borderId="769" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="0" borderId="770" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="0" borderId="771" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="0" borderId="772" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="0" borderId="773" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="0" borderId="774" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="0" borderId="775" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="0" borderId="776" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="0" borderId="777" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="0" borderId="778" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="0" borderId="779" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="0" borderId="780" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="0" borderId="781" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="0" borderId="782" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="0" borderId="783" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="0" borderId="784" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="0" borderId="785" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="0" borderId="786" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="787" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="0" borderId="788" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="789" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="0" borderId="790" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="791" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="0" borderId="792" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="0" borderId="793" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="0" borderId="794" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="0" borderId="795" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="0" borderId="796" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="0" borderId="797" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="0" borderId="798" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="0" borderId="799" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="800" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="0" borderId="801" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="0" borderId="802" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="0" borderId="803" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="0" borderId="804" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="805" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="0" borderId="806" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="0" borderId="807" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="0" borderId="808" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="0" borderId="809" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="744" fillId="0" borderId="744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="810" fillId="0" borderId="810" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="745" fillId="0" borderId="745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="746" fillId="0" borderId="746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="747" fillId="0" borderId="747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="748" fillId="0" borderId="748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="749" fillId="0" borderId="749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="750" fillId="0" borderId="750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="751" fillId="0" borderId="751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="752" fillId="0" borderId="752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="753" fillId="0" borderId="753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="754" fillId="0" borderId="754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="755" fillId="0" borderId="755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="756" fillId="0" borderId="756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="757" fillId="0" borderId="757" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="758" fillId="0" borderId="758" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="759" fillId="0" borderId="759" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="760" fillId="0" borderId="760" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="761" fillId="0" borderId="761" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="762" fillId="0" borderId="762" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="763" fillId="0" borderId="763" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="764" fillId="0" borderId="764" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="765" fillId="0" borderId="765" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="766" fillId="0" borderId="766" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="767" fillId="0" borderId="767" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="768" fillId="0" borderId="768" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="769" fillId="0" borderId="769" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="770" fillId="0" borderId="770" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="771" fillId="0" borderId="771" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="772" fillId="0" borderId="772" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="773" fillId="0" borderId="773" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="774" fillId="0" borderId="774" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="775" fillId="0" borderId="775" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="776" fillId="0" borderId="776" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="777" fillId="0" borderId="777" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="778" fillId="0" borderId="778" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="779" fillId="0" borderId="779" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="780" fillId="0" borderId="780" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="781" fillId="0" borderId="781" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="782" fillId="0" borderId="782" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="783" fillId="0" borderId="783" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="784" fillId="0" borderId="784" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="785" fillId="0" borderId="785" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="786" fillId="0" borderId="786" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="787" fillId="0" borderId="787" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="788" fillId="0" borderId="788" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="789" fillId="0" borderId="789" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="790" fillId="0" borderId="790" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="791" fillId="0" borderId="791" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="792" fillId="0" borderId="792" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="793" fillId="0" borderId="793" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="794" fillId="0" borderId="794" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="795" fillId="0" borderId="795" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="796" fillId="0" borderId="796" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="797" fillId="0" borderId="797" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="798" fillId="0" borderId="798" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="799" fillId="0" borderId="799" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="800" fillId="0" borderId="800" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="801" fillId="0" borderId="801" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="802" fillId="0" borderId="802" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="803" fillId="0" borderId="803" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="804" fillId="0" borderId="804" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="805" fillId="0" borderId="805" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="806" fillId="0" borderId="806" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="807" fillId="0" borderId="807" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="808" fillId="0" borderId="808" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="809" fillId="0" borderId="809" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="810" fillId="0" borderId="810" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="0" fontId="811" fillId="0" borderId="811" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="812" fillId="0" borderId="812" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="813" fillId="0" borderId="813" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="814" fillId="0" borderId="814" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="815" fillId="0" borderId="815" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="816" fillId="0" borderId="816" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="817" fillId="0" borderId="817" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="818" fillId="0" borderId="818" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="819" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="820" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="2" fontId="819" fillId="0" borderId="821" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="819" fillId="0" borderId="819" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="820" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="0" borderId="821" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="0" borderId="822" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="0" borderId="823" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="0" borderId="824" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="0" borderId="825" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="826" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="0" borderId="827" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="0" borderId="828" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="0" borderId="829" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="0" borderId="830" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="0" borderId="831" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="832" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="0" borderId="833" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="0" borderId="834" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="0" borderId="835" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="0" borderId="836" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="0" borderId="837" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="0" borderId="838" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="0" borderId="839" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="0" borderId="840" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="0" borderId="841" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="0" borderId="842" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="0" borderId="843" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="0" borderId="844" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="0" borderId="845" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="0" borderId="846" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="0" borderId="847" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="0" borderId="848" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="0" borderId="849" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="0" borderId="850" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="0" borderId="851" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="0" borderId="852" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="0" borderId="853" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="0" borderId="854" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="0" borderId="855" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="0" borderId="856" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="0" borderId="857" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="0" borderId="858" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="0" borderId="859" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="0" borderId="860" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="0" borderId="861" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="0" borderId="862" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="0" borderId="863" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="0" borderId="864" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="0" borderId="865" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="0" borderId="866" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="0" borderId="867" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="0" borderId="868" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="0" borderId="869" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="0" borderId="870" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="0" borderId="871" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="0" borderId="872" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="0" borderId="873" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="0" borderId="874" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="0" borderId="875" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="0" borderId="876" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="0" borderId="877" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="0" borderId="878" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="0" borderId="879" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="0" borderId="880" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="0" borderId="881" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="0" borderId="882" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="0" borderId="883" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="0" borderId="884" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="885" fillId="0" borderId="887" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="820" fillId="0" borderId="822" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="821" fillId="0" borderId="823" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="822" fillId="0" borderId="824" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="886" fillId="0" borderId="888" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="0" borderId="889" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="890" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="823" fillId="0" borderId="825" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="891" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="824" fillId="0" borderId="826" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="825" fillId="0" borderId="827" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="826" fillId="0" borderId="828" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="827" fillId="0" borderId="829" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="828" fillId="0" borderId="830" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="829" fillId="0" borderId="831" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="830" fillId="0" borderId="832" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="831" fillId="0" borderId="833" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="832" fillId="0" borderId="834" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="833" fillId="0" borderId="835" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="834" fillId="0" borderId="836" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="835" fillId="0" borderId="837" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="836" fillId="0" borderId="838" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="837" fillId="0" borderId="839" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="838" fillId="0" borderId="840" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="839" fillId="0" borderId="841" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="840" fillId="0" borderId="842" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="890" fillId="0" borderId="892" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="0" borderId="893" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="0" borderId="894" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="0" borderId="895" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="0" borderId="896" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="0" borderId="897" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="0" borderId="898" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="0" borderId="899" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="0" borderId="900" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="0" borderId="901" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="902" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="0" borderId="903" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="0" borderId="904" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="0" borderId="905" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="0" borderId="906" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="0" borderId="907" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="0" borderId="908" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="841" fillId="0" borderId="843" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="907" fillId="0" borderId="909" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="842" fillId="0" borderId="844" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="843" fillId="0" borderId="845" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="844" fillId="0" borderId="846" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="845" fillId="0" borderId="847" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="846" fillId="0" borderId="848" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="847" fillId="0" borderId="849" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="848" fillId="0" borderId="850" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="849" fillId="0" borderId="851" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="850" fillId="0" borderId="852" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="851" fillId="0" borderId="853" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="852" fillId="0" borderId="854" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="853" fillId="0" borderId="855" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="854" fillId="0" borderId="856" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="855" fillId="0" borderId="857" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="856" fillId="0" borderId="858" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="857" fillId="0" borderId="859" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="858" fillId="0" borderId="860" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="859" fillId="0" borderId="861" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="860" fillId="0" borderId="862" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="861" fillId="0" borderId="863" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="862" fillId="0" borderId="864" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="863" fillId="0" borderId="865" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="864" fillId="0" borderId="866" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="865" fillId="0" borderId="867" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="866" fillId="0" borderId="868" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="867" fillId="0" borderId="869" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="868" fillId="0" borderId="870" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="869" fillId="0" borderId="871" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="870" fillId="0" borderId="872" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="871" fillId="0" borderId="873" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="872" fillId="0" borderId="874" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="873" fillId="0" borderId="875" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="874" fillId="0" borderId="876" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="875" fillId="0" borderId="877" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="876" fillId="0" borderId="878" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="877" fillId="0" borderId="879" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="878" fillId="0" borderId="880" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="879" fillId="0" borderId="881" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="880" fillId="0" borderId="882" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="881" fillId="0" borderId="883" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="882" fillId="0" borderId="884" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="883" fillId="0" borderId="885" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="884" fillId="0" borderId="886" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="885" fillId="0" borderId="887" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="886" fillId="0" borderId="888" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="887" fillId="0" borderId="889" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="888" fillId="0" borderId="890" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="889" fillId="0" borderId="891" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="890" fillId="0" borderId="892" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="891" fillId="0" borderId="893" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="892" fillId="0" borderId="894" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="893" fillId="0" borderId="895" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="894" fillId="0" borderId="896" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="895" fillId="0" borderId="897" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="896" fillId="0" borderId="898" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="897" fillId="0" borderId="899" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="898" fillId="0" borderId="900" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="899" fillId="0" borderId="901" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="900" fillId="0" borderId="902" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="901" fillId="0" borderId="903" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="902" fillId="0" borderId="904" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="903" fillId="0" borderId="905" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="904" fillId="0" borderId="906" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="905" fillId="0" borderId="907" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="906" fillId="0" borderId="908" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="907" fillId="0" borderId="909" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="0" fontId="908" fillId="0" borderId="910" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="909" fillId="0" borderId="911" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="910" fillId="0" borderId="912" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="911" fillId="0" borderId="913" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="912" fillId="0" borderId="914" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14713,7 +15461,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="913" fillId="0" borderId="915" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="914" fillId="0" borderId="916" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14721,7 +15469,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="915" fillId="0" borderId="917" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="916" fillId="0" borderId="918" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14753,7 +15501,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="923" fillId="0" borderId="925" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="924" fillId="0" borderId="926" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14761,7 +15509,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="925" fillId="0" borderId="927" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="926" fillId="0" borderId="928" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14793,7 +15541,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="933" fillId="0" borderId="935" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="934" fillId="0" borderId="936" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14801,7 +15549,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="935" fillId="0" borderId="937" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="936" fillId="0" borderId="938" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14833,7 +15581,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="943" fillId="0" borderId="945" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="944" fillId="0" borderId="946" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14841,7 +15589,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="945" fillId="0" borderId="947" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="946" fillId="0" borderId="948" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -14869,18 +15617,282 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="952" fillId="0" borderId="954" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="953" fillId="0" borderId="955" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="954" fillId="0" borderId="956" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="955" fillId="0" borderId="957" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="0" borderId="958" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="0" borderId="959" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="0" borderId="960" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="0" borderId="961" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="0" borderId="962" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="0" borderId="963" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="0" borderId="964" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="0" borderId="965" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="0" borderId="966" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="0" borderId="967" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="0" borderId="968" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="0" borderId="969" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="0" borderId="970" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="0" borderId="971" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="972" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="0" borderId="973" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="0" borderId="974" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="0" borderId="975" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="0" borderId="976" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="0" borderId="977" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="0" borderId="978" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="977" fillId="0" borderId="979" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="0" borderId="980" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="979" fillId="0" borderId="981" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="0" borderId="982" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="0" borderId="983" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="0" borderId="984" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="0" borderId="985" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="0" borderId="986" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="0" borderId="987" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="0" borderId="988" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="0" borderId="989" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="0" borderId="990" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="0" borderId="991" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="0" borderId="992" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="991" fillId="0" borderId="993" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="992" fillId="0" borderId="994" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="993" fillId="0" borderId="995" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="994" fillId="0" borderId="996" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="995" fillId="0" borderId="997" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="0" borderId="998" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="997" fillId="0" borderId="999" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="0" borderId="1000" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="999" fillId="0" borderId="1001" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1000" fillId="0" borderId="1002" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1001" fillId="0" borderId="1003" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="0" borderId="1004" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1003" fillId="0" borderId="1005" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="0" borderId="1006" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1005" fillId="0" borderId="1007" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1006" fillId="0" borderId="1008" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="0" borderId="1009" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="0" borderId="1010" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="0" borderId="1011" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="0" borderId="1012" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="0" borderId="1013" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="0" borderId="1014" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="0" borderId="1015" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="0" borderId="1016" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="0" borderId="1017" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="0" borderId="1018" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="0" borderId="1019" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="0" borderId="1020" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="0" borderId="1021" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="0" borderId="1022" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="0" borderId="1023" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15256,6 +16268,46 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="888"/>
+      <c r="B1" s="891" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="894" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="895"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="897" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="899" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="902" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="905" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15263,240 +16315,240 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="840"/>
-      <c r="B1" s="843" t="s">
-        <v>149</v>
+      <c r="A1" s="906"/>
+      <c r="B1" s="909" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="846" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="847"/>
+      <c r="A2" s="912" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="913"/>
     </row>
     <row r="3">
-      <c r="A3" s="849" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="851" t="s">
-        <v>151</v>
+      <c r="A3" s="915" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="917" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="853" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="855" t="s">
+      <c r="A4" s="919" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="921" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="857" t="s">
-        <v>152</v>
+      <c r="A5" s="923" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="859" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="861" t="s">
-        <v>79</v>
+      <c r="A6" s="925" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="927" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="863" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="865" t="s">
+      <c r="A7" s="929" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="931" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="867" t="s">
-        <v>153</v>
+      <c r="A8" s="933" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="869" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="871" t="s">
-        <v>154</v>
+      <c r="A9" s="935" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="937" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="873" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="875" t="s">
+      <c r="A10" s="939" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="941" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="877" t="s">
-        <v>155</v>
+      <c r="A11" s="943" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="879" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="881" t="s">
-        <v>156</v>
+      <c r="A12" s="945" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="947" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="883" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="885" t="s">
-        <v>122</v>
+      <c r="A13" s="949" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="951" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="887" t="s">
-        <v>157</v>
+      <c r="A14" s="953" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="889" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="891" t="s">
-        <v>156</v>
+      <c r="A15" s="955" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="957" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="893" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="895" t="s">
-        <v>122</v>
+      <c r="A16" s="959" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="961" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="897" t="s">
-        <v>158</v>
+      <c r="A17" s="963" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="899" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="901" t="s">
-        <v>159</v>
+      <c r="A18" s="965" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="967" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="903" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="905" t="s">
-        <v>119</v>
+      <c r="A19" s="969" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="971" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="907" t="s">
-        <v>160</v>
+      <c r="A20" s="973" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="909" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="911" t="s">
-        <v>161</v>
+      <c r="A21" s="975" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="977" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="913" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="915" t="s">
+      <c r="A22" s="979" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="981" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="917" t="s">
-        <v>162</v>
+      <c r="A23" s="983" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="919" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="921" t="s">
-        <v>163</v>
+      <c r="A24" s="985" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="987" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="923" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="925" t="s">
+      <c r="A25" s="989" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="991" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="927" t="s">
-        <v>164</v>
+      <c r="A26" s="993" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="929" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="931" t="s">
-        <v>165</v>
+      <c r="A27" s="995" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="997" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="933" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="935" t="s">
+      <c r="A28" s="999" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="1001" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="937" t="s">
-        <v>166</v>
+      <c r="A29" s="1003" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="939" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="941" t="s">
-        <v>161</v>
+      <c r="A30" s="1005" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="1007" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="943" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="945" t="s">
+      <c r="A31" s="1009" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="1011" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="947" t="s">
-        <v>167</v>
+      <c r="A32" s="1013" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="949" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="951" t="s">
-        <v>168</v>
+      <c r="A33" s="1015" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="1017" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="954" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="957" t="s">
+      <c r="A34" s="1020" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="1023" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15832,7 +16884,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15855,7 +16907,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="346" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -15871,25 +16923,25 @@
         <v>64</v>
       </c>
       <c r="B5" s="354" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="356" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="358" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="360" t="s">
-        <v>65</v>
+      <c r="A7" s="358" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="360" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="362" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="364" t="s">
         <v>66</v>
@@ -15897,18 +16949,18 @@
     </row>
     <row r="9">
       <c r="A9" s="366" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" s="368" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="370" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B10" s="372" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -15916,12 +16968,12 @@
         <v>14</v>
       </c>
       <c r="B11" s="376" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="378" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -15929,7 +16981,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="382" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -15945,142 +16997,23 @@
         <v>64</v>
       </c>
       <c r="B15" s="390" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="392" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="394" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="396" t="s">
+      <c r="A17" s="397" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="398" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="400" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="402" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="404" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="406" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="408" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="410" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="412" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="414" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="416" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="418" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="420" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="422" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="424" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="426" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="428" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="430" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="432" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="434" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="436" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="438" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="440" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="442" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="444" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="446" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="448" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="450" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="452" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="455" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="458" t="s">
-        <v>9</v>
+      <c r="B17" s="400" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -16088,6 +17021,263 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="401"/>
+      <c r="B1" s="404" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="407" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="408"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="410" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="412" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="414" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="416" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="418" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="420" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="422" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="424" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="426" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="428" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="430" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="432" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="434" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="436" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="438" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="440" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="442" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="444" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="446" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="448" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="450" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="452" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="454" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="456" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="458" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="460" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="462" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="464" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="466" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="468" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="470" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="472" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="474" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="476" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="478" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="480" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="482" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="484" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="486" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="488" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="490" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="492" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="494" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="496" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="498" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="500" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="502" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="504" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="506" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="508" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="510" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="512" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="514" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="516" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="518" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="521" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="524" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -16096,194 +17286,194 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="459"/>
-      <c r="B1" s="462" t="s">
-        <v>80</v>
+      <c r="A1" s="525"/>
+      <c r="B1" s="528" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="465" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="466"/>
+      <c r="A2" s="531" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="532"/>
     </row>
     <row r="3">
-      <c r="A3" s="468" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="470" t="s">
-        <v>83</v>
+      <c r="A3" s="534" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="536" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="472" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="474" t="s">
-        <v>76</v>
+      <c r="A4" s="538" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="540" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="476" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="478" t="s">
+      <c r="A5" s="542" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="544" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="480" t="s">
-        <v>86</v>
+      <c r="A6" s="546" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="482" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="484" t="s">
-        <v>87</v>
+      <c r="A7" s="548" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="550" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="486" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="488" t="s">
-        <v>88</v>
+      <c r="A8" s="552" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="554" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="490" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="492" t="s">
+      <c r="A9" s="556" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="558" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="494" t="s">
-        <v>89</v>
+      <c r="A10" s="560" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="496" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="498" t="s">
+      <c r="A11" s="562" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="564" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="566" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="568" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="570" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="572" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="574" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="576" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="578" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="580" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="582" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="584" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="586" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="588" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="590" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="592" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="594" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="596" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="598" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="600" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="602" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="604" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="500" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="502" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="504" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="506" t="s">
+    <row r="23">
+      <c r="A23" s="606" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="608" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="610" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="612" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="508" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="510" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="512" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="514" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="516" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="518" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="520" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="522" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="524" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="526" t="s">
+    <row r="25">
+      <c r="A25" s="615" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="528" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="530" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="532" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="534" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="536" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="538" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="540" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="542" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="544" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="546" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="549" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="552" t="s">
-        <v>101</v>
+      <c r="B25" s="618" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -16292,178 +17482,178 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="553"/>
-      <c r="B1" s="556" t="s">
-        <v>102</v>
+      <c r="A1" s="619"/>
+      <c r="B1" s="622" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="559" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="560"/>
+      <c r="A2" s="625" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="626"/>
     </row>
     <row r="3">
-      <c r="A3" s="562" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="564" t="s">
+      <c r="A3" s="628" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="630" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="632" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="634" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="636" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="638" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="640" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="642" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="644" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="646" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="648" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="650" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="566" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="568" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="570" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="572" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="574" t="s">
+      <c r="B9" s="652" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="654" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="656" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="658" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="660" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="662" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="576" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="578" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="580" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="582" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="584" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="586" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="588" t="s">
+    <row r="13">
+      <c r="A13" s="664" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="666" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="668" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="670" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="672" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="590" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="592" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="594" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="596" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="598" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="600" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="602" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="604" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="606" t="s">
+      <c r="B15" s="674" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="676" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="678" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="680" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="682" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="684" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="686" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="688" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="690" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="608" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="610" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="612" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="614" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="616" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="618" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="620" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="622" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="624" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="626" t="s">
+      <c r="B20" s="692" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="628" t="s">
-        <v>111</v>
+      <c r="A21" s="694" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="630" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="632" t="s">
+      <c r="A22" s="696" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="698" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="635" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="638" t="s">
-        <v>79</v>
+      <c r="A23" s="701" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="704" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -16472,202 +17662,202 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="639"/>
-      <c r="B1" s="642" t="s">
-        <v>112</v>
+      <c r="A1" s="705"/>
+      <c r="B1" s="708" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="645" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="646"/>
+      <c r="A2" s="711" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="712"/>
     </row>
     <row r="3">
-      <c r="A3" s="648" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="650" t="s">
+      <c r="A3" s="714" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="716" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="652" t="s">
+      <c r="A4" s="718" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="720" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="654" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="656" t="s">
+      <c r="A5" s="722" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="658" t="s">
+      <c r="B5" s="724" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="660" t="s">
-        <v>114</v>
+      <c r="A6" s="726" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="662" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="664" t="s">
+      <c r="A7" s="728" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="730" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="666" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="668" t="s">
-        <v>115</v>
+      <c r="A8" s="732" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="734" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="670" t="s">
+      <c r="A9" s="736" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="738" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="740" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="742" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="744" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="746" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="748" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="750" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="752" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="754" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="756" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="758" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="760" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="762" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="764" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="672" t="s">
+      <c r="B17" s="766" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="768" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="770" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="772" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="774" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="776" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="778" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="780" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="782" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="674" t="s">
+    <row r="22">
+      <c r="A22" s="784" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="786" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="788" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="790" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="792" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="794" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="796" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="798" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="800" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="803" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="676" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="678" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="680" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="682" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="684" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="686" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="688" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="690" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="692" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="694" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="696" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="698" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="700" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="702" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="704" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="706" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="708" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="710" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="712" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="714" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="716" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="718" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="720" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="722" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="724" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="726" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="728" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="730" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="732" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="734" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="737" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="740" t="s">
+      <c r="B27" s="806" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16675,7 +17865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -16684,154 +17874,154 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="741"/>
-      <c r="B1" s="744" t="s">
-        <v>123</v>
+      <c r="A1" s="807"/>
+      <c r="B1" s="810" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="747" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="748"/>
+      <c r="A2" s="813" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="814"/>
     </row>
     <row r="3">
-      <c r="A3" s="750" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="752" t="s">
+      <c r="A3" s="816" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="818" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="820" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="822" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="824" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="826" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="828" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="830" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="832" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="834" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="836" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="838" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="840" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="842" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="844" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="846" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="848" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="850" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="852" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="854" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="856" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="858" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="860" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="862" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="864" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="754" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="756" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="758" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="760" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="762" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="764" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="766" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="768" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="770" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="772" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="774" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="776" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="778" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="780" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="782" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="784" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="786" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="788" t="s">
+    <row r="17">
+      <c r="A17" s="866" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="868" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="870" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="872" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="874" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="876" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="878" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="790" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="792" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="794" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="796" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="798" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="800" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="802" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="804" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="806" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="808" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="810" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="812" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="21">
-      <c r="A21" s="815" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="818" t="s">
+      <c r="A21" s="881" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="884" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16839,7 +18029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -16848,146 +18038,106 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="821" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="821" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="821" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="821" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="821" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="821" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="821" t="s">
+      <c r="A1" s="887" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="821" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="821" t="s">
+      <c r="B1" s="887" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="821" t="s">
+      <c r="C1" s="887" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="821" t="s">
+      <c r="D1" s="887" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="821"/>
-      <c r="M1" s="821"/>
+      <c r="E1" s="887" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="887" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="887" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="887" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="887" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="887" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="887" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="887"/>
+      <c r="M1" s="887"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="820">
+        <v>143</v>
+      </c>
+      <c r="B2" s="886">
         <v>0.43205574154853821</v>
       </c>
-      <c r="C2" s="820">
+      <c r="C2" s="886">
         <v>0.77003484964370728</v>
       </c>
-      <c r="D2" s="820">
+      <c r="D2" s="886">
         <v>0.33449476957321167</v>
       </c>
-      <c r="E2" s="820">
+      <c r="E2" s="886">
         <v>0.35191637277603149</v>
       </c>
-      <c r="F2" s="820">
+      <c r="F2" s="886">
         <v>0.81018519401550293</v>
       </c>
-      <c r="G2" s="820">
+      <c r="G2" s="886">
         <v>0.59581881761550903</v>
       </c>
-      <c r="H2" s="820">
+      <c r="H2" s="886">
         <v>0.7638888955116272</v>
       </c>
-      <c r="I2" s="820">
+      <c r="I2" s="886">
         <v>0.40418118238449097</v>
       </c>
-      <c r="J2" s="820">
+      <c r="J2" s="886">
         <v>0.56944441795349121</v>
       </c>
-      <c r="K2" s="820">
+      <c r="K2" s="886">
         <v>0.58188152313232422</v>
       </c>
-      <c r="L2" s="820"/>
-      <c r="M2" s="820"/>
+      <c r="L2" s="886"/>
+      <c r="M2" s="886"/>
     </row>
     <row r="3">
-      <c r="B3" s="820"/>
-      <c r="C3" s="820"/>
-      <c r="D3" s="820"/>
-      <c r="E3" s="820"/>
-      <c r="F3" s="820"/>
-      <c r="G3" s="820"/>
-      <c r="H3" s="820"/>
-      <c r="I3" s="820"/>
-      <c r="J3" s="820"/>
-      <c r="K3" s="820"/>
-      <c r="L3" s="820"/>
-      <c r="M3" s="820"/>
+      <c r="B3" s="886"/>
+      <c r="C3" s="886"/>
+      <c r="D3" s="886"/>
+      <c r="E3" s="886"/>
+      <c r="F3" s="886"/>
+      <c r="G3" s="886"/>
+      <c r="H3" s="886"/>
+      <c r="I3" s="886"/>
+      <c r="J3" s="886"/>
+      <c r="K3" s="886"/>
+      <c r="L3" s="886"/>
+      <c r="M3" s="886"/>
     </row>
     <row r="4">
-      <c r="B4" s="820"/>
-      <c r="C4" s="820"/>
-      <c r="D4" s="820"/>
-      <c r="E4" s="820"/>
-      <c r="F4" s="820"/>
-      <c r="G4" s="820"/>
-      <c r="H4" s="820"/>
-      <c r="I4" s="820"/>
-      <c r="J4" s="820"/>
-      <c r="K4" s="820"/>
-      <c r="L4" s="820"/>
-      <c r="M4" s="820"/>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="822"/>
-      <c r="B1" s="825" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="828" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="829"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="831" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="833" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="836" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="839" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="886"/>
+      <c r="C4" s="886"/>
+      <c r="D4" s="886"/>
+      <c r="E4" s="886"/>
+      <c r="F4" s="886"/>
+      <c r="G4" s="886"/>
+      <c r="H4" s="886"/>
+      <c r="I4" s="886"/>
+      <c r="J4" s="886"/>
+      <c r="K4" s="886"/>
+      <c r="L4" s="886"/>
+      <c r="M4" s="886"/>
     </row>
   </sheetData>
 </worksheet>
@@ -17263,13 +18413,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937E5662-622F-4200-A110-9B019186DDC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07BDFE95-D765-4CEC-922A-B93FD2844A96}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB7B2BA4-4B8D-41E5-AB3A-7065D9A09163}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6764422-D72B-45D8-8E1C-5056BC426DE0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D949F7-1590-4E2B-B84B-F8618E827DEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C7168E1-CCA2-4371-BC40-3A3302259AEE}"/>
 </file>